--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H2">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I2">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J2">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>29.5022967006222</v>
+        <v>0.1562936666666667</v>
       </c>
       <c r="N2">
-        <v>29.5022967006222</v>
+        <v>0.468881</v>
       </c>
       <c r="O2">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="P2">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="Q2">
-        <v>295.7549115547033</v>
+        <v>2.757393040395</v>
       </c>
       <c r="R2">
-        <v>295.7549115547033</v>
+        <v>24.816537363555</v>
       </c>
       <c r="S2">
-        <v>0.007461181322937083</v>
+        <v>5.817605920682674E-05</v>
       </c>
       <c r="T2">
-        <v>0.007461181322937083</v>
+        <v>5.817605920682673E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H3">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I3">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J3">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>23.4844501970959</v>
+        <v>0.05738533333333334</v>
       </c>
       <c r="N3">
-        <v>23.4844501970959</v>
+        <v>0.172156</v>
       </c>
       <c r="O3">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340919</v>
       </c>
       <c r="P3">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340918</v>
       </c>
       <c r="Q3">
-        <v>235.427145263794</v>
+        <v>1.01241414402</v>
       </c>
       <c r="R3">
-        <v>235.427145263794</v>
+        <v>9.11172729618</v>
       </c>
       <c r="S3">
-        <v>0.005939257643840408</v>
+        <v>2.136012687400527E-05</v>
       </c>
       <c r="T3">
-        <v>0.005939257643840408</v>
+        <v>2.136012687400527E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H4">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I4">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J4">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.4733257655346</v>
+        <v>37.765109</v>
       </c>
       <c r="N4">
-        <v>52.4733257655346</v>
+        <v>113.295327</v>
       </c>
       <c r="O4">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114046</v>
       </c>
       <c r="P4">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114045</v>
       </c>
       <c r="Q4">
-        <v>526.0351076477215</v>
+        <v>666.2665925449651</v>
       </c>
       <c r="R4">
-        <v>526.0351076477215</v>
+        <v>5996.399332904685</v>
       </c>
       <c r="S4">
-        <v>0.01327059388382949</v>
+        <v>0.01405703291753941</v>
       </c>
       <c r="T4">
-        <v>0.01327059388382949</v>
+        <v>0.01405703291753941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.7272453100143</v>
+        <v>17.642385</v>
       </c>
       <c r="H5">
-        <v>18.7272453100143</v>
+        <v>52.927155</v>
       </c>
       <c r="I5">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J5">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.5022967006222</v>
+        <v>23.90063033333334</v>
       </c>
       <c r="N5">
-        <v>29.5022967006222</v>
+        <v>71.701891</v>
       </c>
       <c r="O5">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="P5">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="Q5">
-        <v>552.4967475213774</v>
+        <v>421.664122083345</v>
       </c>
       <c r="R5">
-        <v>552.4967475213774</v>
+        <v>3794.977098750105</v>
       </c>
       <c r="S5">
-        <v>0.01393815707715652</v>
+        <v>0.008896358470608615</v>
       </c>
       <c r="T5">
-        <v>0.01393815707715652</v>
+        <v>0.008896358470608615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.7272453100143</v>
+        <v>17.642385</v>
       </c>
       <c r="H6">
-        <v>18.7272453100143</v>
+        <v>52.927155</v>
       </c>
       <c r="I6">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J6">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.4844501970959</v>
+        <v>56.08363733333334</v>
       </c>
       <c r="N6">
-        <v>23.4844501970959</v>
+        <v>168.250912</v>
       </c>
       <c r="O6">
-        <v>0.2226857008916039</v>
+        <v>0.4744086217013212</v>
       </c>
       <c r="P6">
-        <v>0.2226857008916039</v>
+        <v>0.474408621701321</v>
       </c>
       <c r="Q6">
-        <v>439.7990598118286</v>
+        <v>989.4491220350401</v>
       </c>
       <c r="R6">
-        <v>439.7990598118286</v>
+        <v>8905.04209831536</v>
       </c>
       <c r="S6">
-        <v>0.0110950669040922</v>
+        <v>0.02087560600262027</v>
       </c>
       <c r="T6">
-        <v>0.0110950669040922</v>
+        <v>0.02087560600262027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.7272453100143</v>
+        <v>17.642385</v>
       </c>
       <c r="H7">
-        <v>18.7272453100143</v>
+        <v>52.927155</v>
       </c>
       <c r="I7">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J7">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>52.4733257655346</v>
+        <v>0.254942</v>
       </c>
       <c r="N7">
-        <v>52.4733257655346</v>
+        <v>0.764826</v>
       </c>
       <c r="O7">
-        <v>0.4975658032503784</v>
+        <v>0.002156541347611445</v>
       </c>
       <c r="P7">
-        <v>0.4975658032503784</v>
+        <v>0.002156541347611445</v>
       </c>
       <c r="Q7">
-        <v>982.6808438434604</v>
+        <v>4.497784916670001</v>
       </c>
       <c r="R7">
-        <v>982.6808438434604</v>
+        <v>40.48006425003</v>
       </c>
       <c r="S7">
-        <v>0.02479066170009065</v>
+        <v>9.489521362332974E-05</v>
       </c>
       <c r="T7">
-        <v>0.02479066170009065</v>
+        <v>9.489521362332972E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H8">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I8">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J8">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>29.5022967006222</v>
+        <v>0.1562936666666667</v>
       </c>
       <c r="N8">
-        <v>29.5022967006222</v>
+        <v>0.468881</v>
       </c>
       <c r="O8">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="P8">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="Q8">
-        <v>1182.200848398307</v>
+        <v>2.936447701640444</v>
       </c>
       <c r="R8">
-        <v>1182.200848398307</v>
+        <v>26.428029314764</v>
       </c>
       <c r="S8">
-        <v>0.02982406900247994</v>
+        <v>6.195379216737017E-05</v>
       </c>
       <c r="T8">
-        <v>0.02982406900247994</v>
+        <v>6.195379216737017E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H9">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I9">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J9">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>23.4844501970959</v>
+        <v>0.05738533333333334</v>
       </c>
       <c r="N9">
-        <v>23.4844501970959</v>
+        <v>0.172156</v>
       </c>
       <c r="O9">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340919</v>
       </c>
       <c r="P9">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340918</v>
       </c>
       <c r="Q9">
-        <v>941.0568007266038</v>
+        <v>1.078156484318222</v>
       </c>
       <c r="R9">
-        <v>941.0568007266038</v>
+        <v>9.703408358863999</v>
       </c>
       <c r="S9">
-        <v>0.02374058773358891</v>
+        <v>2.274717261813931E-05</v>
       </c>
       <c r="T9">
-        <v>0.02374058773358891</v>
+        <v>2.274717261813932E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H10">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I10">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J10">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.4733257655346</v>
+        <v>37.765109</v>
       </c>
       <c r="N10">
-        <v>52.4733257655346</v>
+        <v>113.295327</v>
       </c>
       <c r="O10">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114046</v>
       </c>
       <c r="P10">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114045</v>
       </c>
       <c r="Q10">
-        <v>2102.684101776641</v>
+        <v>709.5314217802653</v>
       </c>
       <c r="R10">
-        <v>2102.684101776641</v>
+        <v>6385.782796022388</v>
       </c>
       <c r="S10">
-        <v>0.05304563588054172</v>
+        <v>0.01496984339841504</v>
       </c>
       <c r="T10">
-        <v>0.05304563588054172</v>
+        <v>0.01496984339841504</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.2023791341376</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H11">
-        <v>51.2023791341376</v>
+        <v>56.364044</v>
       </c>
       <c r="I11">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J11">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5022967006222</v>
+        <v>23.90063033333334</v>
       </c>
       <c r="N11">
-        <v>29.5022967006222</v>
+        <v>71.701891</v>
       </c>
       <c r="O11">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="P11">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="Q11">
-        <v>1510.587780993075</v>
+        <v>449.0453932452449</v>
       </c>
       <c r="R11">
-        <v>1510.587780993075</v>
+        <v>4041.408539207204</v>
       </c>
       <c r="S11">
-        <v>0.03810847731642098</v>
+        <v>0.009474054297404737</v>
       </c>
       <c r="T11">
-        <v>0.03810847731642098</v>
+        <v>0.009474054297404737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.2023791341376</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H12">
-        <v>51.2023791341376</v>
+        <v>56.364044</v>
       </c>
       <c r="I12">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J12">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.4844501970959</v>
+        <v>56.08363733333334</v>
       </c>
       <c r="N12">
-        <v>23.4844501970959</v>
+        <v>168.250912</v>
       </c>
       <c r="O12">
-        <v>0.2226857008916039</v>
+        <v>0.4744086217013212</v>
       </c>
       <c r="P12">
-        <v>0.2226857008916039</v>
+        <v>0.474408621701321</v>
       </c>
       <c r="Q12">
-        <v>1202.459722748477</v>
+        <v>1053.700200778681</v>
       </c>
       <c r="R12">
-        <v>1202.459722748477</v>
+        <v>9483.301807008127</v>
       </c>
       <c r="S12">
-        <v>0.03033515141910198</v>
+        <v>0.02223118879634382</v>
       </c>
       <c r="T12">
-        <v>0.03033515141910198</v>
+        <v>0.02223118879634382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.2023791341376</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H13">
-        <v>51.2023791341376</v>
+        <v>56.364044</v>
       </c>
       <c r="I13">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J13">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>52.4733257655346</v>
+        <v>0.254942</v>
       </c>
       <c r="N13">
-        <v>52.4733257655346</v>
+        <v>0.764826</v>
       </c>
       <c r="O13">
-        <v>0.4975658032503784</v>
+        <v>0.002156541347611445</v>
       </c>
       <c r="P13">
-        <v>0.4975658032503784</v>
+        <v>0.002156541347611445</v>
       </c>
       <c r="Q13">
-        <v>2686.759120276014</v>
+        <v>4.789854035149333</v>
       </c>
       <c r="R13">
-        <v>2686.759120276014</v>
+        <v>43.108686316344</v>
       </c>
       <c r="S13">
-        <v>0.06778043638246208</v>
+        <v>0.0001010573494089141</v>
       </c>
       <c r="T13">
-        <v>0.06778043638246208</v>
+        <v>0.0001010573494089141</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>254.357849436458</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H14">
-        <v>254.357849436458</v>
+        <v>134.465311</v>
       </c>
       <c r="I14">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J14">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>29.5022967006222</v>
+        <v>0.1562936666666667</v>
       </c>
       <c r="N14">
-        <v>29.5022967006222</v>
+        <v>0.468881</v>
       </c>
       <c r="O14">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="P14">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="Q14">
-        <v>7504.140742206573</v>
+        <v>7.005358831887888</v>
       </c>
       <c r="R14">
-        <v>7504.140742206573</v>
+        <v>63.04822948699099</v>
       </c>
       <c r="S14">
-        <v>0.189311326923093</v>
+        <v>0.000147800536303158</v>
       </c>
       <c r="T14">
-        <v>0.189311326923093</v>
+        <v>0.000147800536303158</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>254.357849436458</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H15">
-        <v>254.357849436458</v>
+        <v>134.465311</v>
       </c>
       <c r="I15">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J15">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>23.4844501970959</v>
+        <v>0.05738533333333334</v>
       </c>
       <c r="N15">
-        <v>23.4844501970959</v>
+        <v>0.172156</v>
       </c>
       <c r="O15">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340919</v>
       </c>
       <c r="P15">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340918</v>
       </c>
       <c r="Q15">
-        <v>5973.454247330915</v>
+        <v>2.572112231168444</v>
       </c>
       <c r="R15">
-        <v>5973.454247330915</v>
+        <v>23.149010080516</v>
       </c>
       <c r="S15">
-        <v>0.1506958076514008</v>
+        <v>5.426696566464938E-05</v>
       </c>
       <c r="T15">
-        <v>0.1506958076514008</v>
+        <v>5.426696566464938E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>254.357849436458</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H16">
-        <v>254.357849436458</v>
+        <v>134.465311</v>
       </c>
       <c r="I16">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J16">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.4733257655346</v>
+        <v>37.765109</v>
       </c>
       <c r="N16">
-        <v>52.4733257655346</v>
+        <v>113.295327</v>
       </c>
       <c r="O16">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114046</v>
       </c>
       <c r="P16">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114045</v>
       </c>
       <c r="Q16">
-        <v>13347.00229450006</v>
+        <v>1692.699042211299</v>
       </c>
       <c r="R16">
-        <v>13347.00229450006</v>
+        <v>15234.2913799017</v>
       </c>
       <c r="S16">
-        <v>0.3367125966342674</v>
+        <v>0.03571292095700541</v>
       </c>
       <c r="T16">
-        <v>0.3367125966342674</v>
+        <v>0.03571292095700541</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.48505491324496</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H17">
-        <v>1.48505491324496</v>
+        <v>134.465311</v>
       </c>
       <c r="I17">
-        <v>0.003950992524696721</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J17">
-        <v>0.003950992524696721</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.5022967006222</v>
+        <v>23.90063033333334</v>
       </c>
       <c r="N17">
-        <v>29.5022967006222</v>
+        <v>71.701891</v>
       </c>
       <c r="O17">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="P17">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="Q17">
-        <v>43.81253066726957</v>
+        <v>1071.268563622567</v>
       </c>
       <c r="R17">
-        <v>43.81253066726957</v>
+        <v>9641.417072603101</v>
       </c>
       <c r="S17">
-        <v>0.00110528421593018</v>
+        <v>0.02260184981637255</v>
       </c>
       <c r="T17">
-        <v>0.00110528421593018</v>
+        <v>0.02260184981637255</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,1233 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.48505491324496</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H18">
-        <v>1.48505491324496</v>
+        <v>134.465311</v>
       </c>
       <c r="I18">
-        <v>0.003950992524696721</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J18">
-        <v>0.003950992524696721</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.4844501970959</v>
+        <v>56.08363733333334</v>
       </c>
       <c r="N18">
-        <v>23.4844501970959</v>
+        <v>168.250912</v>
       </c>
       <c r="O18">
-        <v>0.2226857008916039</v>
+        <v>0.4744086217013212</v>
       </c>
       <c r="P18">
-        <v>0.2226857008916039</v>
+        <v>0.474408621701321</v>
       </c>
       <c r="Q18">
-        <v>34.87569815005384</v>
+        <v>2513.767912012625</v>
       </c>
       <c r="R18">
-        <v>34.87569815005384</v>
+        <v>22623.91120811363</v>
       </c>
       <c r="S18">
-        <v>0.0008798295395795769</v>
+        <v>0.05303600492895946</v>
       </c>
       <c r="T18">
-        <v>0.0008798295395795769</v>
+        <v>0.05303600492895945</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>44.82177033333333</v>
+      </c>
+      <c r="H19">
+        <v>134.465311</v>
+      </c>
+      <c r="I19">
+        <v>0.1117939314398673</v>
+      </c>
+      <c r="J19">
+        <v>0.1117939314398674</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.254942</v>
+      </c>
+      <c r="N19">
+        <v>0.764826</v>
+      </c>
+      <c r="O19">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P19">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q19">
+        <v>11.42695177232067</v>
+      </c>
+      <c r="R19">
+        <v>102.842565950886</v>
+      </c>
+      <c r="S19">
+        <v>0.000241088235562113</v>
+      </c>
+      <c r="T19">
+        <v>0.000241088235562113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>51.213492</v>
+      </c>
+      <c r="H20">
+        <v>153.640476</v>
+      </c>
+      <c r="I20">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J20">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1562936666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.468881</v>
+      </c>
+      <c r="O20">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="P20">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="Q20">
+        <v>8.004344447484</v>
+      </c>
+      <c r="R20">
+        <v>72.039100027356</v>
+      </c>
+      <c r="S20">
+        <v>0.0001688773452557774</v>
+      </c>
+      <c r="T20">
+        <v>0.0001688773452557773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>51.213492</v>
+      </c>
+      <c r="H21">
+        <v>153.640476</v>
+      </c>
+      <c r="I21">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J21">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05738533333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.172156</v>
+      </c>
+      <c r="O21">
+        <v>0.0004854196016340919</v>
+      </c>
+      <c r="P21">
+        <v>0.0004854196016340918</v>
+      </c>
+      <c r="Q21">
+        <v>2.938903309584</v>
+      </c>
+      <c r="R21">
+        <v>26.450129786256</v>
+      </c>
+      <c r="S21">
+        <v>6.200560110103333E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.200560110103333E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>51.213492</v>
+      </c>
+      <c r="H22">
+        <v>153.640476</v>
+      </c>
+      <c r="I22">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J22">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>37.765109</v>
+      </c>
+      <c r="N22">
+        <v>113.295327</v>
+      </c>
+      <c r="O22">
+        <v>0.3194531268114046</v>
+      </c>
+      <c r="P22">
+        <v>0.3194531268114045</v>
+      </c>
+      <c r="Q22">
+        <v>1934.083107650628</v>
+      </c>
+      <c r="R22">
+        <v>17406.74796885565</v>
+      </c>
+      <c r="S22">
+        <v>0.04080569281682388</v>
+      </c>
+      <c r="T22">
+        <v>0.04080569281682387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>51.213492</v>
+      </c>
+      <c r="H23">
+        <v>153.640476</v>
+      </c>
+      <c r="I23">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J23">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>23.90063033333334</v>
+      </c>
+      <c r="N23">
+        <v>71.701891</v>
+      </c>
+      <c r="O23">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="P23">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="Q23">
+        <v>1224.034740371124</v>
+      </c>
+      <c r="R23">
+        <v>11016.31266334012</v>
+      </c>
+      <c r="S23">
+        <v>0.02582494279337213</v>
+      </c>
+      <c r="T23">
+        <v>0.02582494279337213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.48505491324496</v>
-      </c>
-      <c r="H19">
-        <v>1.48505491324496</v>
-      </c>
-      <c r="I19">
-        <v>0.003950992524696721</v>
-      </c>
-      <c r="J19">
-        <v>0.003950992524696721</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>52.4733257655346</v>
-      </c>
-      <c r="N19">
-        <v>52.4733257655346</v>
-      </c>
-      <c r="O19">
-        <v>0.4975658032503784</v>
-      </c>
-      <c r="P19">
-        <v>0.4975658032503784</v>
-      </c>
-      <c r="Q19">
-        <v>77.92577024241051</v>
-      </c>
-      <c r="R19">
-        <v>77.92577024241051</v>
-      </c>
-      <c r="S19">
-        <v>0.001965878769186964</v>
-      </c>
-      <c r="T19">
-        <v>0.001965878769186964</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>51.213492</v>
+      </c>
+      <c r="H24">
+        <v>153.640476</v>
+      </c>
+      <c r="I24">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J24">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>56.08363733333334</v>
+      </c>
+      <c r="N24">
+        <v>168.250912</v>
+      </c>
+      <c r="O24">
+        <v>0.4744086217013212</v>
+      </c>
+      <c r="P24">
+        <v>0.474408621701321</v>
+      </c>
+      <c r="Q24">
+        <v>2872.238911901568</v>
+      </c>
+      <c r="R24">
+        <v>25850.15020711411</v>
+      </c>
+      <c r="S24">
+        <v>0.06059910159597726</v>
+      </c>
+      <c r="T24">
+        <v>0.06059910159597726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>51.213492</v>
+      </c>
+      <c r="H25">
+        <v>153.640476</v>
+      </c>
+      <c r="I25">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J25">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.254942</v>
+      </c>
+      <c r="N25">
+        <v>0.764826</v>
+      </c>
+      <c r="O25">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P25">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q25">
+        <v>13.056470077464</v>
+      </c>
+      <c r="R25">
+        <v>117.508230697176</v>
+      </c>
+      <c r="S25">
+        <v>0.0002754681560195342</v>
+      </c>
+      <c r="T25">
+        <v>0.0002754681560195341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H26">
+        <v>800.119003</v>
+      </c>
+      <c r="I26">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J26">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1562936666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.468881</v>
+      </c>
+      <c r="O26">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="P26">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="Q26">
+        <v>41.68451091618256</v>
+      </c>
+      <c r="R26">
+        <v>375.160598245643</v>
+      </c>
+      <c r="S26">
+        <v>0.0008794685920872789</v>
+      </c>
+      <c r="T26">
+        <v>0.0008794685920872787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H27">
+        <v>800.119003</v>
+      </c>
+      <c r="I27">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J27">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.05738533333333334</v>
+      </c>
+      <c r="N27">
+        <v>0.172156</v>
+      </c>
+      <c r="O27">
+        <v>0.0004854196016340919</v>
+      </c>
+      <c r="P27">
+        <v>0.0004854196016340918</v>
+      </c>
+      <c r="Q27">
+        <v>15.30503189782978</v>
+      </c>
+      <c r="R27">
+        <v>137.745287080468</v>
+      </c>
+      <c r="S27">
+        <v>0.000322908786961676</v>
+      </c>
+      <c r="T27">
+        <v>0.000322908786961676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H28">
+        <v>800.119003</v>
+      </c>
+      <c r="I28">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J28">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>37.765109</v>
+      </c>
+      <c r="N28">
+        <v>113.295327</v>
+      </c>
+      <c r="O28">
+        <v>0.3194531268114046</v>
+      </c>
+      <c r="P28">
+        <v>0.3194531268114045</v>
+      </c>
+      <c r="Q28">
+        <v>10072.19378708878</v>
+      </c>
+      <c r="R28">
+        <v>90649.74408379899</v>
+      </c>
+      <c r="S28">
+        <v>0.2125052662120194</v>
+      </c>
+      <c r="T28">
+        <v>0.2125052662120194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H29">
+        <v>800.119003</v>
+      </c>
+      <c r="I29">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J29">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>23.90063033333334</v>
+      </c>
+      <c r="N29">
+        <v>71.701891</v>
+      </c>
+      <c r="O29">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="P29">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="Q29">
+        <v>6374.44950445941</v>
+      </c>
+      <c r="R29">
+        <v>57370.04554013468</v>
+      </c>
+      <c r="S29">
+        <v>0.1344894784129993</v>
+      </c>
+      <c r="T29">
+        <v>0.1344894784129993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H30">
+        <v>800.119003</v>
+      </c>
+      <c r="I30">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J30">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>56.08363733333334</v>
+      </c>
+      <c r="N30">
+        <v>168.250912</v>
+      </c>
+      <c r="O30">
+        <v>0.4744086217013212</v>
+      </c>
+      <c r="P30">
+        <v>0.474408621701321</v>
+      </c>
+      <c r="Q30">
+        <v>14957.86132925342</v>
+      </c>
+      <c r="R30">
+        <v>134620.7519632808</v>
+      </c>
+      <c r="S30">
+        <v>0.3155841091749093</v>
+      </c>
+      <c r="T30">
+        <v>0.3155841091749093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H31">
+        <v>800.119003</v>
+      </c>
+      <c r="I31">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J31">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.254942</v>
+      </c>
+      <c r="N31">
+        <v>0.764826</v>
+      </c>
+      <c r="O31">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P31">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q31">
+        <v>67.99464628760867</v>
+      </c>
+      <c r="R31">
+        <v>611.951816588478</v>
+      </c>
+      <c r="S31">
+        <v>0.001434565370342891</v>
+      </c>
+      <c r="T31">
+        <v>0.001434565370342891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H32">
+        <v>5.280167</v>
+      </c>
+      <c r="I32">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J32">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.1562936666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.468881</v>
+      </c>
+      <c r="O32">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="P32">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="Q32">
+        <v>0.2750855536807778</v>
+      </c>
+      <c r="R32">
+        <v>2.475769983127</v>
+      </c>
+      <c r="S32">
+        <v>5.80381295790285E-06</v>
+      </c>
+      <c r="T32">
+        <v>5.803812957902851E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H33">
+        <v>5.280167</v>
+      </c>
+      <c r="I33">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J33">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.05738533333333334</v>
+      </c>
+      <c r="N33">
+        <v>0.172156</v>
+      </c>
+      <c r="O33">
+        <v>0.0004854196016340919</v>
+      </c>
+      <c r="P33">
+        <v>0.0004854196016340918</v>
+      </c>
+      <c r="Q33">
+        <v>0.1010013811168889</v>
+      </c>
+      <c r="R33">
+        <v>0.9090124300519999</v>
+      </c>
+      <c r="S33">
+        <v>2.130948414588612E-06</v>
+      </c>
+      <c r="T33">
+        <v>2.130948414588613E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H34">
+        <v>5.280167</v>
+      </c>
+      <c r="I34">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J34">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>37.765109</v>
+      </c>
+      <c r="N34">
+        <v>113.295327</v>
+      </c>
+      <c r="O34">
+        <v>0.3194531268114046</v>
+      </c>
+      <c r="P34">
+        <v>0.3194531268114045</v>
+      </c>
+      <c r="Q34">
+        <v>66.46869409773433</v>
+      </c>
+      <c r="R34">
+        <v>598.218246879609</v>
+      </c>
+      <c r="S34">
+        <v>0.001402370509601457</v>
+      </c>
+      <c r="T34">
+        <v>0.001402370509601457</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H35">
+        <v>5.280167</v>
+      </c>
+      <c r="I35">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J35">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>23.90063033333334</v>
+      </c>
+      <c r="N35">
+        <v>71.701891</v>
+      </c>
+      <c r="O35">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="P35">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="Q35">
+        <v>42.06643985508855</v>
+      </c>
+      <c r="R35">
+        <v>378.597958695797</v>
+      </c>
+      <c r="S35">
+        <v>0.0008875266092930569</v>
+      </c>
+      <c r="T35">
+        <v>0.000887526609293057</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H36">
+        <v>5.280167</v>
+      </c>
+      <c r="I36">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J36">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>56.08363733333334</v>
+      </c>
+      <c r="N36">
+        <v>168.250912</v>
+      </c>
+      <c r="O36">
+        <v>0.4744086217013212</v>
+      </c>
+      <c r="P36">
+        <v>0.474408621701321</v>
+      </c>
+      <c r="Q36">
+        <v>98.71032369581155</v>
+      </c>
+      <c r="R36">
+        <v>888.392913262304</v>
+      </c>
+      <c r="S36">
+        <v>0.002082611202511026</v>
+      </c>
+      <c r="T36">
+        <v>0.002082611202511026</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H37">
+        <v>5.280167</v>
+      </c>
+      <c r="I37">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J37">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.254942</v>
+      </c>
+      <c r="N37">
+        <v>0.764826</v>
+      </c>
+      <c r="O37">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P37">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q37">
+        <v>0.4487121117713333</v>
+      </c>
+      <c r="R37">
+        <v>4.038409005941999</v>
+      </c>
+      <c r="S37">
+        <v>9.467022654662923E-06</v>
+      </c>
+      <c r="T37">
+        <v>9.467022654662923E-06</v>
       </c>
     </row>
   </sheetData>
